--- a/academycity/data/ms/datasets/excel/raw_data/Parameters_new.xlsx
+++ b/academycity/data/ms/datasets/excel/raw_data/Parameters_new.xlsx
@@ -1938,18 +1938,19 @@
   <dimension ref="A1:D608"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>14</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>19</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>20</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>21</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>24</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>26</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>27</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>28</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>29</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>30</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>32</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>33</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>34</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>35</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>36</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>37</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>38</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>39</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>40</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>41</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>42</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>43</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>44</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>45</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>46</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>47</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>48</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>49</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>50</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>51</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>52</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>53</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>54</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>55</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>56</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>57</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>58</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>59</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>60</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>61</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>62</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>63</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>64</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>65</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>66</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>67</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>68</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>69</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>70</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>71</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>72</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>73</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>74</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>75</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>76</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>77</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>78</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>79</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>80</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>81</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>82</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>83</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>84</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>85</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>86</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>87</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>88</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>89</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>90</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>91</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>92</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>93</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>94</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>95</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>96</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>97</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>98</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>99</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>100</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>101</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>102</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>103</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>104</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>105</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>106</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>107</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>108</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>109</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>110</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>111</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>112</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>113</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>114</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>115</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>116</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>117</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>118</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>119</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>120</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>121</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>122</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>123</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>124</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>125</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>126</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>127</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>128</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>129</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>130</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>131</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>132</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>133</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>134</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>135</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>136</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>137</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>138</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>139</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>140</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>141</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>142</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>143</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>144</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>145</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>146</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>147</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>148</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>149</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>150</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>151</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>152</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>153</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>154</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>155</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>156</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>157</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>158</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>159</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>160</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>161</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>162</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>163</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>164</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>165</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>166</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>167</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>168</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>169</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>170</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>171</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>172</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>173</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>174</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>175</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>176</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>177</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>178</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>179</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>180</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>181</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>182</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>183</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>184</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>185</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>186</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>187</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>188</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>189</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>190</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>191</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>192</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>193</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>194</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>195</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>196</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>197</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>198</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>199</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>200</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>201</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>202</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>203</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>204</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>205</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>206</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>207</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>208</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>209</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>210</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>211</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>212</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>213</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>214</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>215</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>216</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>217</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>218</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>219</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>220</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>221</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>222</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>223</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>224</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>225</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>226</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>227</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>228</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>229</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>230</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>231</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>232</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>233</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>234</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>235</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>236</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>237</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>238</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>239</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>240</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>241</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>242</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>243</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>244</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>245</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>246</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>247</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>248</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>249</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>250</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>251</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>252</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>253</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>254</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>255</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>256</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>257</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>258</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>259</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>260</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>261</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>262</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>263</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>264</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>265</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>266</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>267</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>268</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>269</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>270</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>271</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>272</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>273</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>274</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>275</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>276</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>277</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>278</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>279</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>280</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>281</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>282</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>283</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>284</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>285</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>286</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>287</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>288</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>289</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>290</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>291</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>292</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>293</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>294</v>
       </c>
@@ -6009,7 +6010,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>295</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>296</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>297</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>298</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>299</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>300</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>301</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>302</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>303</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>304</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>305</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>306</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>307</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>308</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>309</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>310</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>311</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>312</v>
       </c>
@@ -6261,7 +6262,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>313</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>314</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>315</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>316</v>
       </c>
@@ -6317,7 +6318,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>317</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>318</v>
       </c>
@@ -6345,7 +6346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>319</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>320</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>321</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>322</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>323</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>324</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>325</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>326</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>327</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>328</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>329</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>330</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>331</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>332</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>333</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>334</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>335</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>336</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>337</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>338</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>339</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>340</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>341</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>342</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>343</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>344</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>345</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>346</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>347</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>348</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>349</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>350</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>351</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>352</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>353</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>354</v>
       </c>
@@ -6849,7 +6850,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>355</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>356</v>
       </c>
@@ -6877,7 +6878,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>357</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>358</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>359</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>360</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>361</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>362</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>363</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>364</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>365</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>366</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>367</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>368</v>
       </c>
@@ -7045,7 +7046,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>369</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>370</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
         <v>371</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>372</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
         <v>373</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>374</v>
       </c>
@@ -7129,7 +7130,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
         <v>375</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>376</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>377</v>
       </c>
@@ -7171,7 +7172,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>378</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>379</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>380</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>381</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>382</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>383</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
         <v>384</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
         <v>385</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
         <v>386</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
         <v>387</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>388</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
         <v>389</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
         <v>390</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>391</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>392</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>393</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>394</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>395</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>396</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>397</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>398</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>399</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>400</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>401</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
         <v>402</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
         <v>403</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>404</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>405</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>406</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>407</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>408</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>409</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>410</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>411</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
         <v>412</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>413</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>414</v>
       </c>
@@ -7689,7 +7690,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>415</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>416</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>417</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>418</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
         <v>419</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
         <v>420</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
         <v>421</v>
       </c>
@@ -7787,7 +7788,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
         <v>422</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
         <v>423</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
         <v>424</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
         <v>425</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
         <v>426</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
         <v>426</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
         <v>427</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
         <v>427</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
         <v>428</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
         <v>428</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
         <v>429</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>430</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>431</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>432</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>433</v>
       </c>
@@ -7997,7 +7998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>434</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>435</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>436</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
         <v>437</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
         <v>438</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>439</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
         <v>440</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>441</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>442</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>443</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
         <v>444</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>445</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>446</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>447</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>448</v>
       </c>
@@ -8207,7 +8208,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>449</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>450</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>451</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>452</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>453</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>454</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>455</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>456</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>457</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>458</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>459</v>
       </c>
@@ -8361,7 +8362,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>460</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>461</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>462</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>463</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>464</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>465</v>
       </c>
@@ -8445,7 +8446,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>466</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>467</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
         <v>468</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>469</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>470</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
         <v>471</v>
       </c>
@@ -8529,7 +8530,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>472</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>473</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>474</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
         <v>475</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
         <v>475</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
         <v>476</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
         <v>476</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
         <v>477</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
         <v>477</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
         <v>478</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
         <v>478</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
         <v>479</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
         <v>480</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
         <v>481</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
         <v>482</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
         <v>483</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
         <v>484</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
         <v>485</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
         <v>486</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
         <v>487</v>
       </c>
@@ -8809,7 +8810,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
         <v>488</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
         <v>489</v>
       </c>
@@ -8837,7 +8838,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
         <v>490</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
         <v>491</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
         <v>492</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
         <v>493</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
         <v>494</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
         <v>495</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
         <v>496</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
         <v>497</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>498</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
         <v>499</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
         <v>500</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
         <v>501</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
         <v>502</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
         <v>503</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
         <v>504</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
         <v>505</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
         <v>506</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
         <v>507</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
         <v>508</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
         <v>509</v>
       </c>
@@ -9117,7 +9118,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
         <v>510</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
         <v>511</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
         <v>512</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
         <v>513</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
         <v>514</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
         <v>515</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
         <v>516</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>517</v>
       </c>
@@ -9229,7 +9230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
         <v>518</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
         <v>519</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
         <v>520</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
         <v>521</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
         <v>522</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
         <v>523</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
         <v>524</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
         <v>525</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
         <v>526</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
         <v>527</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
         <v>528</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
         <v>529</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
         <v>530</v>
       </c>
@@ -9411,7 +9412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
         <v>531</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
         <v>532</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
         <v>533</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
         <v>534</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
         <v>535</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
         <v>536</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
         <v>537</v>
       </c>
@@ -9509,7 +9510,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
         <v>538</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
         <v>539</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
         <v>540</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
         <v>541</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
         <v>542</v>
       </c>
@@ -9579,7 +9580,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
         <v>543</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
         <v>544</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
         <v>545</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
         <v>546</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
         <v>547</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
         <v>548</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
         <v>549</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
         <v>550</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
         <v>551</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
         <v>552</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
         <v>553</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
         <v>554</v>
       </c>
@@ -9747,7 +9748,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
         <v>555</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
         <v>556</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
         <v>557</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
         <v>558</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
         <v>559</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
         <v>560</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
         <v>561</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
         <v>562</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
         <v>563</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
         <v>564</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
         <v>565</v>
       </c>
@@ -9901,7 +9902,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
         <v>566</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
         <v>567</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
         <v>568</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
         <v>569</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
         <v>570</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
         <v>571</v>
       </c>
@@ -9985,7 +9986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
         <v>572</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
         <v>573</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
         <v>574</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
         <v>575</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
         <v>576</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
         <v>577</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
         <v>578</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
         <v>579</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
         <v>580</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
         <v>581</v>
       </c>
@@ -10125,7 +10126,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
         <v>582</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
         <v>583</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
         <v>584</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
         <v>585</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
         <v>586</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
         <v>587</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
         <v>588</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
         <v>589</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
         <v>590</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
         <v>591</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
         <v>592</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
         <v>593</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
         <v>594</v>
       </c>
@@ -10307,7 +10308,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
         <v>595</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
         <v>596</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
         <v>597</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
         <v>598</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
         <v>599</v>
       </c>
@@ -10377,7 +10378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
         <v>600</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
         <v>601</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
         <v>602</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
         <v>603</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
         <v>604</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
         <v>605</v>
       </c>
